--- a/flows/NBCM_fund_flow_data.xlsx
+++ b/flows/NBCM_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3785,6 +3785,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1.024255</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1.5435075</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1.5492074</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1.5531075</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.52405</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>3.191865</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
